--- a/src/assets/templates/Sample_format_BillerBulk_Para2.xlsx
+++ b/src/assets/templates/Sample_format_BillerBulk_Para2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10392" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10356" uniqueCount="1763">
   <si>
     <t>Discom_Name</t>
   </si>
@@ -4440,18 +4440,9 @@
     <t>Enter FNB (HT) or Regular</t>
   </si>
   <si>
-    <t>Jamshedpur Utilities (JUSCO)</t>
-  </si>
-  <si>
-    <t>81620006</t>
-  </si>
-  <si>
     <t>Jharkhand</t>
   </si>
   <si>
-    <t>Enter District Here</t>
-  </si>
-  <si>
     <t>MP Poorv Kshetra - Jabalpur</t>
   </si>
   <si>
@@ -4497,12 +4488,6 @@
     <t>205364133</t>
   </si>
   <si>
-    <t>205364129</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>205364125</t>
   </si>
   <si>
@@ -4614,16 +4599,7 @@
     <t>44773983</t>
   </si>
   <si>
-    <t>BP No.</t>
-  </si>
-  <si>
     <t>K No.</t>
-  </si>
-  <si>
-    <t>243209309</t>
-  </si>
-  <si>
-    <t>Business Partner Number</t>
   </si>
   <si>
     <t>Jharkhand Bijli Vitran Nigam</t>
@@ -5678,7 +5654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L866"/>
+  <dimension ref="A1:L863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -5715,28 +5691,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -33367,19 +33343,19 @@
     </row>
     <row r="729" spans="1:12">
       <c r="A729" s="1" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F729" s="2" t="s">
         <v>1462</v>
@@ -33405,19 +33381,19 @@
     </row>
     <row r="730" spans="1:12">
       <c r="A730" s="1" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F730" s="2" t="s">
         <v>1462</v>
@@ -33443,19 +33419,19 @@
     </row>
     <row r="731" spans="1:12">
       <c r="A731" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D731" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B731" s="1" t="s">
+      <c r="E731" s="2" t="s">
         <v>1479</v>
-      </c>
-      <c r="C731" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D731" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E731" s="2" t="s">
-        <v>1482</v>
       </c>
       <c r="F731" s="2" t="s">
         <v>1462</v>
@@ -33481,19 +33457,19 @@
     </row>
     <row r="732" spans="1:12">
       <c r="A732" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D732" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B732" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C732" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="D732" s="1" t="s">
-        <v>1481</v>
-      </c>
       <c r="E732" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="F732" s="2" t="s">
         <v>1462</v>
@@ -33519,19 +33495,19 @@
     </row>
     <row r="733" spans="1:12">
       <c r="A733" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E733" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C733" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D733" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E733" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F733" s="2" t="s">
         <v>1462</v>
@@ -33557,19 +33533,19 @@
     </row>
     <row r="734" spans="1:12">
       <c r="A734" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E734" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C734" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D734" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E734" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F734" s="2" t="s">
         <v>1462</v>
@@ -33595,19 +33571,19 @@
     </row>
     <row r="735" spans="1:12">
       <c r="A735" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E735" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C735" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D735" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E735" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F735" s="2" t="s">
         <v>1462</v>
@@ -33633,19 +33609,19 @@
     </row>
     <row r="736" spans="1:12">
       <c r="A736" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E736" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C736" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D736" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E736" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F736" s="2" t="s">
         <v>1462</v>
@@ -33671,19 +33647,19 @@
     </row>
     <row r="737" spans="1:12">
       <c r="A737" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E737" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C737" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D737" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E737" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F737" s="2" t="s">
         <v>1462</v>
@@ -33709,19 +33685,19 @@
     </row>
     <row r="738" spans="1:12">
       <c r="A738" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E738" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B738" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C738" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D738" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E738" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F738" s="2" t="s">
         <v>1462</v>
@@ -33747,19 +33723,19 @@
     </row>
     <row r="739" spans="1:12">
       <c r="A739" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E739" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C739" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D739" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E739" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F739" s="2" t="s">
         <v>1462</v>
@@ -33785,19 +33761,19 @@
     </row>
     <row r="740" spans="1:12">
       <c r="A740" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E740" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B740" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C740" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D740" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E740" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F740" s="2" t="s">
         <v>1462</v>
@@ -33823,19 +33799,19 @@
     </row>
     <row r="741" spans="1:12">
       <c r="A741" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E741" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C741" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D741" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E741" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F741" s="2" t="s">
         <v>1462</v>
@@ -33861,19 +33837,19 @@
     </row>
     <row r="742" spans="1:12">
       <c r="A742" s="1" t="s">
-        <v>1485</v>
+        <v>1498</v>
       </c>
       <c r="B742" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E742" s="2" t="s">
         <v>1501</v>
-      </c>
-      <c r="C742" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D742" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E742" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="F742" s="2" t="s">
         <v>1462</v>
@@ -33899,19 +33875,19 @@
     </row>
     <row r="743" spans="1:12">
       <c r="A743" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C743" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B743" s="1" t="s">
+      <c r="D743" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C743" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D743" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E743" s="2" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="F743" s="2" t="s">
         <v>1462</v>
@@ -33937,19 +33913,19 @@
     </row>
     <row r="744" spans="1:12">
       <c r="A744" s="1" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="F744" s="2" t="s">
         <v>1462</v>
@@ -33975,19 +33951,19 @@
     </row>
     <row r="745" spans="1:12">
       <c r="A745" s="1" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="B745" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D745" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="C745" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D745" s="1" t="s">
-        <v>1509</v>
-      </c>
       <c r="E745" s="2" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="F745" s="2" t="s">
         <v>1462</v>
@@ -34013,19 +33989,19 @@
     </row>
     <row r="746" spans="1:12">
       <c r="A746" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B746" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="B746" s="1" t="s">
+      <c r="C746" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E746" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="C746" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D746" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E746" s="2" t="s">
-        <v>1506</v>
       </c>
       <c r="F746" s="2" t="s">
         <v>1462</v>
@@ -34051,19 +34027,19 @@
     </row>
     <row r="747" spans="1:12">
       <c r="A747" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="F747" s="2" t="s">
         <v>1462</v>
@@ -34089,19 +34065,19 @@
     </row>
     <row r="748" spans="1:12">
       <c r="A748" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>1484</v>
+        <v>1518</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>1518</v>
+        <v>1485</v>
       </c>
       <c r="F748" s="2" t="s">
         <v>1462</v>
@@ -34127,19 +34103,19 @@
     </row>
     <row r="749" spans="1:12">
       <c r="A749" s="1" t="s">
-        <v>1521</v>
+        <v>1470</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1522</v>
+        <v>1471</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>1523</v>
+        <v>1473</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>1515</v>
+        <v>1472</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>1488</v>
+        <v>1527</v>
       </c>
       <c r="F749" s="2" t="s">
         <v>1462</v>
@@ -34165,19 +34141,19 @@
     </row>
     <row r="750" spans="1:12">
       <c r="A750" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D750" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="B750" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C750" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D750" s="1" t="s">
-        <v>1476</v>
-      </c>
       <c r="E750" s="2" t="s">
-        <v>1532</v>
+        <v>1485</v>
       </c>
       <c r="F750" s="2" t="s">
         <v>1462</v>
@@ -34203,19 +34179,19 @@
     </row>
     <row r="751" spans="1:12">
       <c r="A751" s="1" t="s">
-        <v>1470</v>
+        <v>1528</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1471</v>
+        <v>1531</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>1473</v>
+        <v>1532</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E751" s="2" t="s">
-        <v>1533</v>
+        <v>1485</v>
       </c>
       <c r="F751" s="2" t="s">
         <v>1462</v>
@@ -34241,19 +34217,19 @@
     </row>
     <row r="752" spans="1:12">
       <c r="A752" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D752" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="B752" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C752" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D752" s="1" t="s">
-        <v>1476</v>
-      </c>
       <c r="E752" s="2" t="s">
-        <v>1535</v>
+        <v>1485</v>
       </c>
       <c r="F752" s="2" t="s">
         <v>1462</v>
@@ -34279,19 +34255,19 @@
     </row>
     <row r="753" spans="1:12">
       <c r="A753" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C753" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B753" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C753" s="1" t="s">
-        <v>1538</v>
-      </c>
       <c r="D753" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F753" s="2" t="s">
         <v>1462</v>
@@ -34317,19 +34293,19 @@
     </row>
     <row r="754" spans="1:12">
       <c r="A754" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F754" s="2" t="s">
         <v>1462</v>
@@ -34355,19 +34331,19 @@
     </row>
     <row r="755" spans="1:12">
       <c r="A755" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F755" s="2" t="s">
         <v>1462</v>
@@ -34393,19 +34369,19 @@
     </row>
     <row r="756" spans="1:12">
       <c r="A756" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F756" s="2" t="s">
         <v>1462</v>
@@ -34431,19 +34407,19 @@
     </row>
     <row r="757" spans="1:12">
       <c r="A757" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F757" s="2" t="s">
         <v>1462</v>
@@ -34469,19 +34445,19 @@
     </row>
     <row r="758" spans="1:12">
       <c r="A758" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F758" s="2" t="s">
         <v>1462</v>
@@ -34507,19 +34483,19 @@
     </row>
     <row r="759" spans="1:12">
       <c r="A759" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F759" s="2" t="s">
         <v>1462</v>
@@ -34545,19 +34521,19 @@
     </row>
     <row r="760" spans="1:12">
       <c r="A760" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F760" s="2" t="s">
         <v>1462</v>
@@ -34583,19 +34559,19 @@
     </row>
     <row r="761" spans="1:12">
       <c r="A761" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F761" s="2" t="s">
         <v>1462</v>
@@ -34621,19 +34597,19 @@
     </row>
     <row r="762" spans="1:12">
       <c r="A762" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F762" s="2" t="s">
         <v>1462</v>
@@ -34659,19 +34635,19 @@
     </row>
     <row r="763" spans="1:12">
       <c r="A763" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F763" s="2" t="s">
         <v>1462</v>
@@ -34697,19 +34673,19 @@
     </row>
     <row r="764" spans="1:12">
       <c r="A764" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F764" s="2" t="s">
         <v>1462</v>
@@ -34735,19 +34711,19 @@
     </row>
     <row r="765" spans="1:12">
       <c r="A765" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F765" s="2" t="s">
         <v>1462</v>
@@ -34773,19 +34749,19 @@
     </row>
     <row r="766" spans="1:12">
       <c r="A766" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F766" s="2" t="s">
         <v>1462</v>
@@ -34811,19 +34787,19 @@
     </row>
     <row r="767" spans="1:12">
       <c r="A767" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F767" s="2" t="s">
         <v>1462</v>
@@ -34849,19 +34825,19 @@
     </row>
     <row r="768" spans="1:12">
       <c r="A768" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E768" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F768" s="2" t="s">
         <v>1462</v>
@@ -34887,19 +34863,19 @@
     </row>
     <row r="769" spans="1:12">
       <c r="A769" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E769" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F769" s="2" t="s">
         <v>1462</v>
@@ -34925,19 +34901,19 @@
     </row>
     <row r="770" spans="1:12">
       <c r="A770" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F770" s="2" t="s">
         <v>1462</v>
@@ -34963,19 +34939,19 @@
     </row>
     <row r="771" spans="1:12">
       <c r="A771" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F771" s="2" t="s">
         <v>1462</v>
@@ -35001,19 +34977,19 @@
     </row>
     <row r="772" spans="1:12">
       <c r="A772" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E772" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F772" s="2" t="s">
         <v>1462</v>
@@ -35039,19 +35015,19 @@
     </row>
     <row r="773" spans="1:12">
       <c r="A773" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F773" s="2" t="s">
         <v>1462</v>
@@ -35077,19 +35053,19 @@
     </row>
     <row r="774" spans="1:12">
       <c r="A774" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F774" s="2" t="s">
         <v>1462</v>
@@ -35115,19 +35091,19 @@
     </row>
     <row r="775" spans="1:12">
       <c r="A775" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F775" s="2" t="s">
         <v>1462</v>
@@ -35153,19 +35129,19 @@
     </row>
     <row r="776" spans="1:12">
       <c r="A776" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E776" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F776" s="2" t="s">
         <v>1462</v>
@@ -35191,19 +35167,19 @@
     </row>
     <row r="777" spans="1:12">
       <c r="A777" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E777" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F777" s="2" t="s">
         <v>1462</v>
@@ -35229,19 +35205,19 @@
     </row>
     <row r="778" spans="1:12">
       <c r="A778" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E778" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F778" s="2" t="s">
         <v>1462</v>
@@ -35267,19 +35243,19 @@
     </row>
     <row r="779" spans="1:12">
       <c r="A779" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E779" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F779" s="2" t="s">
         <v>1462</v>
@@ -35305,19 +35281,19 @@
     </row>
     <row r="780" spans="1:12">
       <c r="A780" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E780" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F780" s="2" t="s">
         <v>1462</v>
@@ -35343,19 +35319,19 @@
     </row>
     <row r="781" spans="1:12">
       <c r="A781" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E781" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F781" s="2" t="s">
         <v>1462</v>
@@ -35381,19 +35357,19 @@
     </row>
     <row r="782" spans="1:12">
       <c r="A782" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F782" s="2" t="s">
         <v>1462</v>
@@ -35419,19 +35395,19 @@
     </row>
     <row r="783" spans="1:12">
       <c r="A783" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E783" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F783" s="2" t="s">
         <v>1462</v>
@@ -35457,19 +35433,19 @@
     </row>
     <row r="784" spans="1:12">
       <c r="A784" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F784" s="2" t="s">
         <v>1462</v>
@@ -35495,19 +35471,19 @@
     </row>
     <row r="785" spans="1:12">
       <c r="A785" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F785" s="2" t="s">
         <v>1462</v>
@@ -35533,19 +35509,19 @@
     </row>
     <row r="786" spans="1:12">
       <c r="A786" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F786" s="2" t="s">
         <v>1462</v>
@@ -35571,19 +35547,19 @@
     </row>
     <row r="787" spans="1:12">
       <c r="A787" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E787" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F787" s="2" t="s">
         <v>1462</v>
@@ -35609,19 +35585,19 @@
     </row>
     <row r="788" spans="1:12">
       <c r="A788" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E788" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F788" s="2" t="s">
         <v>1462</v>
@@ -35647,19 +35623,19 @@
     </row>
     <row r="789" spans="1:12">
       <c r="A789" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E789" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F789" s="2" t="s">
         <v>1462</v>
@@ -35685,19 +35661,19 @@
     </row>
     <row r="790" spans="1:12">
       <c r="A790" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F790" s="2" t="s">
         <v>1462</v>
@@ -35723,19 +35699,19 @@
     </row>
     <row r="791" spans="1:12">
       <c r="A791" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F791" s="2" t="s">
         <v>1462</v>
@@ -35761,19 +35737,19 @@
     </row>
     <row r="792" spans="1:12">
       <c r="A792" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E792" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F792" s="2" t="s">
         <v>1462</v>
@@ -35799,19 +35775,19 @@
     </row>
     <row r="793" spans="1:12">
       <c r="A793" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E793" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F793" s="2" t="s">
         <v>1462</v>
@@ -35837,19 +35813,19 @@
     </row>
     <row r="794" spans="1:12">
       <c r="A794" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E794" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F794" s="2" t="s">
         <v>1462</v>
@@ -35875,19 +35851,19 @@
     </row>
     <row r="795" spans="1:12">
       <c r="A795" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E795" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F795" s="2" t="s">
         <v>1462</v>
@@ -35913,19 +35889,19 @@
     </row>
     <row r="796" spans="1:12">
       <c r="A796" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F796" s="2" t="s">
         <v>1462</v>
@@ -35951,19 +35927,19 @@
     </row>
     <row r="797" spans="1:12">
       <c r="A797" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F797" s="2" t="s">
         <v>1462</v>
@@ -35989,19 +35965,19 @@
     </row>
     <row r="798" spans="1:12">
       <c r="A798" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E798" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F798" s="2" t="s">
         <v>1462</v>
@@ -36027,19 +36003,19 @@
     </row>
     <row r="799" spans="1:12">
       <c r="A799" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E799" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F799" s="2" t="s">
         <v>1462</v>
@@ -36065,19 +36041,19 @@
     </row>
     <row r="800" spans="1:12">
       <c r="A800" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F800" s="2" t="s">
         <v>1462</v>
@@ -36103,19 +36079,19 @@
     </row>
     <row r="801" spans="1:12">
       <c r="A801" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F801" s="2" t="s">
         <v>1462</v>
@@ -36141,19 +36117,19 @@
     </row>
     <row r="802" spans="1:12">
       <c r="A802" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F802" s="2" t="s">
         <v>1462</v>
@@ -36179,19 +36155,19 @@
     </row>
     <row r="803" spans="1:12">
       <c r="A803" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E803" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F803" s="2" t="s">
         <v>1462</v>
@@ -36217,19 +36193,19 @@
     </row>
     <row r="804" spans="1:12">
       <c r="A804" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E804" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F804" s="2" t="s">
         <v>1462</v>
@@ -36255,19 +36231,19 @@
     </row>
     <row r="805" spans="1:12">
       <c r="A805" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E805" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F805" s="2" t="s">
         <v>1462</v>
@@ -36293,19 +36269,19 @@
     </row>
     <row r="806" spans="1:12">
       <c r="A806" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F806" s="2" t="s">
         <v>1462</v>
@@ -36331,19 +36307,19 @@
     </row>
     <row r="807" spans="1:12">
       <c r="A807" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E807" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F807" s="2" t="s">
         <v>1462</v>
@@ -36369,19 +36345,19 @@
     </row>
     <row r="808" spans="1:12">
       <c r="A808" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E808" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F808" s="2" t="s">
         <v>1462</v>
@@ -36407,19 +36383,19 @@
     </row>
     <row r="809" spans="1:12">
       <c r="A809" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F809" s="2" t="s">
         <v>1462</v>
@@ -36445,19 +36421,19 @@
     </row>
     <row r="810" spans="1:12">
       <c r="A810" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E810" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F810" s="2" t="s">
         <v>1462</v>
@@ -36483,19 +36459,19 @@
     </row>
     <row r="811" spans="1:12">
       <c r="A811" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F811" s="2" t="s">
         <v>1462</v>
@@ -36521,19 +36497,19 @@
     </row>
     <row r="812" spans="1:12">
       <c r="A812" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F812" s="2" t="s">
         <v>1462</v>
@@ -36559,19 +36535,19 @@
     </row>
     <row r="813" spans="1:12">
       <c r="A813" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F813" s="2" t="s">
         <v>1462</v>
@@ -36597,19 +36573,19 @@
     </row>
     <row r="814" spans="1:12">
       <c r="A814" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F814" s="2" t="s">
         <v>1462</v>
@@ -36635,19 +36611,19 @@
     </row>
     <row r="815" spans="1:12">
       <c r="A815" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E815" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F815" s="2" t="s">
         <v>1462</v>
@@ -36673,19 +36649,19 @@
     </row>
     <row r="816" spans="1:12">
       <c r="A816" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E816" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F816" s="2" t="s">
         <v>1462</v>
@@ -36711,19 +36687,19 @@
     </row>
     <row r="817" spans="1:12">
       <c r="A817" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F817" s="2" t="s">
         <v>1462</v>
@@ -36749,19 +36725,19 @@
     </row>
     <row r="818" spans="1:12">
       <c r="A818" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E818" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F818" s="2" t="s">
         <v>1462</v>
@@ -36787,19 +36763,19 @@
     </row>
     <row r="819" spans="1:12">
       <c r="A819" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E819" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F819" s="2" t="s">
         <v>1462</v>
@@ -36825,19 +36801,19 @@
     </row>
     <row r="820" spans="1:12">
       <c r="A820" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E820" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F820" s="2" t="s">
         <v>1462</v>
@@ -36863,19 +36839,19 @@
     </row>
     <row r="821" spans="1:12">
       <c r="A821" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E821" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F821" s="2" t="s">
         <v>1462</v>
@@ -36901,19 +36877,19 @@
     </row>
     <row r="822" spans="1:12">
       <c r="A822" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E822" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F822" s="2" t="s">
         <v>1462</v>
@@ -36939,19 +36915,19 @@
     </row>
     <row r="823" spans="1:12">
       <c r="A823" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E823" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F823" s="2" t="s">
         <v>1462</v>
@@ -36977,19 +36953,19 @@
     </row>
     <row r="824" spans="1:12">
       <c r="A824" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E824" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F824" s="2" t="s">
         <v>1462</v>
@@ -37015,19 +36991,19 @@
     </row>
     <row r="825" spans="1:12">
       <c r="A825" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E825" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F825" s="2" t="s">
         <v>1462</v>
@@ -37053,19 +37029,19 @@
     </row>
     <row r="826" spans="1:12">
       <c r="A826" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E826" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F826" s="2" t="s">
         <v>1462</v>
@@ -37091,19 +37067,19 @@
     </row>
     <row r="827" spans="1:12">
       <c r="A827" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E827" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F827" s="2" t="s">
         <v>1462</v>
@@ -37129,19 +37105,19 @@
     </row>
     <row r="828" spans="1:12">
       <c r="A828" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E828" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F828" s="2" t="s">
         <v>1462</v>
@@ -37167,19 +37143,19 @@
     </row>
     <row r="829" spans="1:12">
       <c r="A829" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E829" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F829" s="2" t="s">
         <v>1462</v>
@@ -37205,19 +37181,19 @@
     </row>
     <row r="830" spans="1:12">
       <c r="A830" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E830" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F830" s="2" t="s">
         <v>1462</v>
@@ -37243,19 +37219,19 @@
     </row>
     <row r="831" spans="1:12">
       <c r="A831" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E831" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F831" s="2" t="s">
         <v>1462</v>
@@ -37281,19 +37257,19 @@
     </row>
     <row r="832" spans="1:12">
       <c r="A832" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E832" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F832" s="2" t="s">
         <v>1462</v>
@@ -37319,19 +37295,19 @@
     </row>
     <row r="833" spans="1:12">
       <c r="A833" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E833" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F833" s="2" t="s">
         <v>1462</v>
@@ -37357,19 +37333,19 @@
     </row>
     <row r="834" spans="1:12">
       <c r="A834" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E834" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F834" s="2" t="s">
         <v>1462</v>
@@ -37395,19 +37371,19 @@
     </row>
     <row r="835" spans="1:12">
       <c r="A835" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E835" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F835" s="2" t="s">
         <v>1462</v>
@@ -37433,19 +37409,19 @@
     </row>
     <row r="836" spans="1:12">
       <c r="A836" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E836" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F836" s="2" t="s">
         <v>1462</v>
@@ -37471,19 +37447,19 @@
     </row>
     <row r="837" spans="1:12">
       <c r="A837" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E837" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F837" s="2" t="s">
         <v>1462</v>
@@ -37509,19 +37485,19 @@
     </row>
     <row r="838" spans="1:12">
       <c r="A838" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E838" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F838" s="2" t="s">
         <v>1462</v>
@@ -37547,19 +37523,19 @@
     </row>
     <row r="839" spans="1:12">
       <c r="A839" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E839" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F839" s="2" t="s">
         <v>1462</v>
@@ -37585,19 +37561,19 @@
     </row>
     <row r="840" spans="1:12">
       <c r="A840" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E840" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F840" s="2" t="s">
         <v>1462</v>
@@ -37623,19 +37599,19 @@
     </row>
     <row r="841" spans="1:12">
       <c r="A841" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E841" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F841" s="2" t="s">
         <v>1462</v>
@@ -37661,19 +37637,19 @@
     </row>
     <row r="842" spans="1:12">
       <c r="A842" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E842" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F842" s="2" t="s">
         <v>1462</v>
@@ -37699,19 +37675,19 @@
     </row>
     <row r="843" spans="1:12">
       <c r="A843" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E843" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F843" s="2" t="s">
         <v>1462</v>
@@ -37737,19 +37713,19 @@
     </row>
     <row r="844" spans="1:12">
       <c r="A844" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E844" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F844" s="2" t="s">
         <v>1462</v>
@@ -37775,19 +37751,19 @@
     </row>
     <row r="845" spans="1:12">
       <c r="A845" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E845" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F845" s="2" t="s">
         <v>1462</v>
@@ -37813,19 +37789,19 @@
     </row>
     <row r="846" spans="1:12">
       <c r="A846" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E846" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F846" s="2" t="s">
         <v>1462</v>
@@ -37851,19 +37827,19 @@
     </row>
     <row r="847" spans="1:12">
       <c r="A847" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E847" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F847" s="2" t="s">
         <v>1462</v>
@@ -37889,19 +37865,19 @@
     </row>
     <row r="848" spans="1:12">
       <c r="A848" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E848" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F848" s="2" t="s">
         <v>1462</v>
@@ -37927,19 +37903,19 @@
     </row>
     <row r="849" spans="1:12">
       <c r="A849" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F849" s="2" t="s">
         <v>1462</v>
@@ -37965,19 +37941,19 @@
     </row>
     <row r="850" spans="1:12">
       <c r="A850" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F850" s="2" t="s">
         <v>1462</v>
@@ -38003,19 +37979,19 @@
     </row>
     <row r="851" spans="1:12">
       <c r="A851" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F851" s="2" t="s">
         <v>1462</v>
@@ -38041,19 +38017,19 @@
     </row>
     <row r="852" spans="1:12">
       <c r="A852" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E852" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F852" s="2" t="s">
         <v>1462</v>
@@ -38079,19 +38055,19 @@
     </row>
     <row r="853" spans="1:12">
       <c r="A853" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E853" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F853" s="2" t="s">
         <v>1462</v>
@@ -38117,19 +38093,19 @@
     </row>
     <row r="854" spans="1:12">
       <c r="A854" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F854" s="2" t="s">
         <v>1462</v>
@@ -38155,19 +38131,19 @@
     </row>
     <row r="855" spans="1:12">
       <c r="A855" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E855" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F855" s="2" t="s">
         <v>1462</v>
@@ -38193,19 +38169,19 @@
     </row>
     <row r="856" spans="1:12">
       <c r="A856" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E856" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F856" s="2" t="s">
         <v>1462</v>
@@ -38231,19 +38207,19 @@
     </row>
     <row r="857" spans="1:12">
       <c r="A857" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F857" s="2" t="s">
         <v>1462</v>
@@ -38269,19 +38245,19 @@
     </row>
     <row r="858" spans="1:12">
       <c r="A858" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E858" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F858" s="2" t="s">
         <v>1462</v>
@@ -38307,19 +38283,19 @@
     </row>
     <row r="859" spans="1:12">
       <c r="A859" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F859" s="2" t="s">
         <v>1462</v>
@@ -38345,19 +38321,19 @@
     </row>
     <row r="860" spans="1:12">
       <c r="A860" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F860" s="2" t="s">
         <v>1462</v>
@@ -38383,19 +38359,19 @@
     </row>
     <row r="861" spans="1:12">
       <c r="A861" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E861" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F861" s="2" t="s">
         <v>1462</v>
@@ -38421,19 +38397,19 @@
     </row>
     <row r="862" spans="1:12">
       <c r="A862" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E862" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F862" s="2" t="s">
         <v>1462</v>
@@ -38459,19 +38435,19 @@
     </row>
     <row r="863" spans="1:12">
       <c r="A863" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F863" s="2" t="s">
         <v>1462</v>
@@ -38492,120 +38468,6 @@
         <v>1467</v>
       </c>
       <c r="L863" s="2" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="864" spans="1:12">
-      <c r="A864" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B864" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C864" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D864" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E864" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F864" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G864" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H864" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I864" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J864" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K864" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="L864" s="2" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="865" spans="1:12">
-      <c r="A865" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B865" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C865" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D865" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E865" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F865" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G865" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H865" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I865" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J865" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K865" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="L865" s="2" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="866" spans="1:12">
-      <c r="A866" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C866" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D866" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E866" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F866" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G866" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H866" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="I866" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J866" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="K866" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="L866" s="2" t="s">
         <v>1468</v>
       </c>
     </row>
